--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACDF/15/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACDF/15/seed3/result_data_KNN.xlsx
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>13.666</v>
+        <v>13.098</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>13.148</v>
+        <v>13.187</v>
       </c>
     </row>
     <row r="7">
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.446</v>
+        <v>-7.269</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.024</v>
+        <v>-21.107</v>
       </c>
       <c r="B8" t="n">
         <v>7.52</v>
@@ -593,12 +593,12 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>11.996</v>
+        <v>12.499</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-20.42</v>
+        <v>-20.684</v>
       </c>
       <c r="B10" t="n">
         <v>9.35</v>
@@ -610,7 +610,7 @@
         <v>-8.93</v>
       </c>
       <c r="E10" t="n">
-        <v>13.32</v>
+        <v>12.66</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.136</v>
+        <v>-21.694</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
@@ -655,7 +655,7 @@
         <v>4.42</v>
       </c>
       <c r="C13" t="n">
-        <v>-14.15</v>
+        <v>-13.059</v>
       </c>
       <c r="D13" t="n">
         <v>-8.92</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.136</v>
+        <v>-21.694</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -777,7 +777,7 @@
         <v>-14.65</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.336000000000002</v>
+        <v>-8.222</v>
       </c>
       <c r="E20" t="n">
         <v>13.73</v>
